--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>account</t>
   </si>
@@ -27,27 +27,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>street</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
     <t>state</t>
   </si>
   <si>
-    <t>postal-code</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
     <t>34456 Sean Highway</t>
   </si>
   <si>
@@ -241,6 +226,24 @@
   </si>
   <si>
     <t>Kerluke</t>
+  </si>
+  <si>
+    <t>postalcode</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>Area4</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +615,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -626,45 +629,45 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>211829</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1">
         <v>28752</v>
@@ -681,22 +684,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>320563</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>38365</v>
@@ -713,22 +716,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>648336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>76517</v>
@@ -743,9 +746,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1">
+        <v>948336</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76517</v>
+      </c>
+      <c r="H8" s="1">
+        <v>91000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>35000</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -753,16 +788,16 @@
         <v>109996</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1">
         <v>46021</v>
@@ -782,16 +817,16 @@
         <v>121213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1">
         <v>49681</v>
@@ -811,16 +846,16 @@
         <v>132971</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1">
         <v>62785</v>
@@ -840,16 +875,16 @@
         <v>145068</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>18008</v>
@@ -869,16 +904,16 @@
         <v>205217</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>53461</v>
@@ -898,16 +933,16 @@
         <v>209744</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1">
         <v>64415</v>
@@ -927,16 +962,16 @@
         <v>212303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1">
         <v>46308</v>
@@ -956,16 +991,16 @@
         <v>214098</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1">
         <v>47743</v>
@@ -985,16 +1020,16 @@
         <v>231907</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1">
         <v>31415</v>
@@ -1014,16 +1049,16 @@
         <v>242368</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
         <v>72686</v>
@@ -1043,16 +1078,16 @@
         <v>268755</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1">
         <v>31919</v>
@@ -1072,16 +1107,16 @@
         <v>273274</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1">
         <v>27933</v>
@@ -1098,10 +1133,10 @@
     </row>
     <row r="29" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1109,7 +1144,7 @@
         <v>214098</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1117,7 +1152,7 @@
         <v>231907</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1125,7 +1160,7 @@
         <v>242368</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1168,7 @@
         <v>268755</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1176,7 @@
         <v>273274</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
